--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42977,6 +42977,41 @@
         <v>30300</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>71600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43012,6 +43012,41 @@
         <v>71600</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>874900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43047,6 +43047,41 @@
         <v>874900</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>350400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43082,6 +43082,41 @@
         <v>350400</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>321500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43117,6 +43117,41 @@
         <v>321500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>249100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43152,6 +43152,41 @@
         <v>249100</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>250000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43187,6 +43187,41 @@
         <v>250000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>142100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43222,6 +43222,41 @@
         <v>142100</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>112500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43257,6 +43257,41 @@
         <v>112500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>112600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43292,6 +43292,41 @@
         <v>112600</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>213200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43327,6 +43327,41 @@
         <v>213200</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>86200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43362,6 +43362,41 @@
         <v>86200</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>59100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43397,6 +43397,76 @@
         <v>59100</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>114400</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>497800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43467,6 +43467,76 @@
         <v>497800</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>492100</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>67000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43537,6 +43537,41 @@
         <v>67000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>322100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43572,6 +43572,41 @@
         <v>322100</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>305500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43607,6 +43607,41 @@
         <v>305500</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>423900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43642,6 +43642,41 @@
         <v>423900</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1407500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43677,6 +43677,76 @@
         <v>1407500</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1904300</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1695200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43747,6 +43747,41 @@
         <v>1695200</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1836000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43782,6 +43782,41 @@
         <v>1836000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>3236500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2299"/>
+  <dimension ref="A1:I2300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80847,6 +80847,41 @@
         <v>3236500</v>
       </c>
     </row>
+    <row r="2300">
+      <c r="A2300" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2300" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2300" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2300" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2300" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G2300" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2300" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I2300" t="n">
+        <v>1126800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2300"/>
+  <dimension ref="A1:I2301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80882,6 +80882,41 @@
         <v>1126800</v>
       </c>
     </row>
+    <row r="2301">
+      <c r="A2301" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2301" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2301" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2301" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2301" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G2301" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2301" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2301" t="n">
+        <v>677000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2301"/>
+  <dimension ref="A1:I2302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80917,6 +80917,41 @@
         <v>677000</v>
       </c>
     </row>
+    <row r="2302">
+      <c r="A2302" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2302" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2302" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2302" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2302" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2302" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H2302" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I2302" t="n">
+        <v>1191000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2302"/>
+  <dimension ref="A1:I2303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80952,6 +80952,41 @@
         <v>1191000</v>
       </c>
     </row>
+    <row r="2303">
+      <c r="A2303" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2303" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2303" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2303" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2303" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F2303" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2303" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2303" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2303" t="n">
+        <v>776800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2303"/>
+  <dimension ref="A1:I2304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80987,6 +80987,41 @@
         <v>776800</v>
       </c>
     </row>
+    <row r="2304">
+      <c r="A2304" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2304" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2304" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2304" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F2304" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G2304" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H2304" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2304" t="n">
+        <v>1154300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2304"/>
+  <dimension ref="A1:I2305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81022,6 +81022,41 @@
         <v>1154300</v>
       </c>
     </row>
+    <row r="2305">
+      <c r="A2305" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2305" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2305" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2305" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2305" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F2305" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G2305" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H2305" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I2305" t="n">
+        <v>612100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2305"/>
+  <dimension ref="A1:I2306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81057,6 +81057,41 @@
         <v>612100</v>
       </c>
     </row>
+    <row r="2306">
+      <c r="A2306" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2306" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2306" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2306" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2306" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F2306" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2306" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H2306" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2306" t="n">
+        <v>404500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2306"/>
+  <dimension ref="A1:I2307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81092,6 +81092,41 @@
         <v>404500</v>
       </c>
     </row>
+    <row r="2307">
+      <c r="A2307" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2307" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2307" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2307" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2307" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2307" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G2307" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H2307" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2307" t="n">
+        <v>1513600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2307"/>
+  <dimension ref="A1:I2308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81127,6 +81127,41 @@
         <v>1513600</v>
       </c>
     </row>
+    <row r="2308">
+      <c r="A2308" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2308" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2308" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2308" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2308" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F2308" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G2308" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2308" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2308" t="n">
+        <v>679400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2308"/>
+  <dimension ref="A1:I2309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81162,6 +81162,41 @@
         <v>679400</v>
       </c>
     </row>
+    <row r="2309">
+      <c r="A2309" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2309" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2309" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2309" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2309" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2309" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2309" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2309" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2309" t="n">
+        <v>657800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2309"/>
+  <dimension ref="A1:I2310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81197,6 +81197,41 @@
         <v>657800</v>
       </c>
     </row>
+    <row r="2310">
+      <c r="A2310" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2310" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2310" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2310" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2310" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2310" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2310" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2310" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2310" t="n">
+        <v>555000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2310"/>
+  <dimension ref="A1:I2311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81232,6 +81232,41 @@
         <v>555000</v>
       </c>
     </row>
+    <row r="2311">
+      <c r="A2311" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2311" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2311" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2311" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2311" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2311" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2311" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2311" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I2311" t="n">
+        <v>217100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2311"/>
+  <dimension ref="A1:I2312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81267,6 +81267,41 @@
         <v>217100</v>
       </c>
     </row>
+    <row r="2312">
+      <c r="A2312" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2312" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2312" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2312" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2312" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2312" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2312" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H2312" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2312" t="n">
+        <v>403100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2312"/>
+  <dimension ref="A1:I2313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81302,6 +81302,41 @@
         <v>403100</v>
       </c>
     </row>
+    <row r="2313">
+      <c r="A2313" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2313" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2313" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2313" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2313" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2313" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G2313" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2313" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I2313" t="n">
+        <v>673500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2313"/>
+  <dimension ref="A1:I2314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81337,6 +81337,41 @@
         <v>673500</v>
       </c>
     </row>
+    <row r="2314">
+      <c r="A2314" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2314" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2314" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2314" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2314" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F2314" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G2314" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2314" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2314" t="n">
+        <v>3624100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2314"/>
+  <dimension ref="A1:I2315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81372,6 +81372,41 @@
         <v>3624100</v>
       </c>
     </row>
+    <row r="2315">
+      <c r="A2315" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2315" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2315" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2315" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2315" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F2315" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G2315" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H2315" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I2315" t="n">
+        <v>2777400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2315"/>
+  <dimension ref="A1:I2316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81407,6 +81407,41 @@
         <v>2777400</v>
       </c>
     </row>
+    <row r="2316">
+      <c r="A2316" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2316" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2316" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2316" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2316" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F2316" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2316" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H2316" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I2316" t="n">
+        <v>2214200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2316"/>
+  <dimension ref="A1:I2317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81442,6 +81442,41 @@
         <v>2214200</v>
       </c>
     </row>
+    <row r="2317">
+      <c r="A2317" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2317" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2317" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2317" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2317" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F2317" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G2317" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2317" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I2317" t="n">
+        <v>1685900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2317"/>
+  <dimension ref="A1:I2318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81477,6 +81477,41 @@
         <v>1685900</v>
       </c>
     </row>
+    <row r="2318">
+      <c r="A2318" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2318" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2318" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2318" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2318" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F2318" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2318" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2318" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2318" t="n">
+        <v>2404700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2318"/>
+  <dimension ref="A1:I2319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81512,6 +81512,41 @@
         <v>2404700</v>
       </c>
     </row>
+    <row r="2319">
+      <c r="A2319" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2319" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2319" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2319" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2319" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2319" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2319" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H2319" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I2319" t="n">
+        <v>1089500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2319"/>
+  <dimension ref="A1:I2320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81547,6 +81547,41 @@
         <v>1089500</v>
       </c>
     </row>
+    <row r="2320">
+      <c r="A2320" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2320" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2320" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2320" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2320" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2320" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G2320" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2320" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I2320" t="n">
+        <v>649900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2320"/>
+  <dimension ref="A1:I2321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81582,6 +81582,41 @@
         <v>649900</v>
       </c>
     </row>
+    <row r="2321">
+      <c r="A2321" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2321" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2321" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2321" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2321" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2321" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G2321" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H2321" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2321" t="n">
+        <v>2283800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2321"/>
+  <dimension ref="A1:I2322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81617,6 +81617,41 @@
         <v>2283800</v>
       </c>
     </row>
+    <row r="2322">
+      <c r="A2322" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2322" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2322" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2322" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2322" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2322" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G2322" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H2322" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I2322" t="n">
+        <v>893900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2322"/>
+  <dimension ref="A1:I2323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81652,6 +81652,41 @@
         <v>893900</v>
       </c>
     </row>
+    <row r="2323">
+      <c r="A2323" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2323" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2323" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2323" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2323" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F2323" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G2323" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H2323" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2323" t="n">
+        <v>665500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2323"/>
+  <dimension ref="A1:I2324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81687,6 +81687,41 @@
         <v>665500</v>
       </c>
     </row>
+    <row r="2324">
+      <c r="A2324" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2324" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2324" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2324" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2324" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2324" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2324" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2324" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I2324" t="n">
+        <v>2477300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2324"/>
+  <dimension ref="A1:I2326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81722,6 +81722,76 @@
         <v>2477300</v>
       </c>
     </row>
+    <row r="2325">
+      <c r="A2325" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2325" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2325" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2325" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2325" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F2325" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2325" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H2325" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I2325" t="n">
+        <v>2388400</v>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2326" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2326" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2326" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2326" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2326" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2326" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2326" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2326" t="n">
+        <v>1935800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2326"/>
+  <dimension ref="A1:I2327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81792,6 +81792,41 @@
         <v>1935800</v>
       </c>
     </row>
+    <row r="2327">
+      <c r="A2327" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2327" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2327" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2327" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2327" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2327" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H2327" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2327" t="n">
+        <v>674100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2327"/>
+  <dimension ref="A1:I2330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81827,6 +81827,111 @@
         <v>674100</v>
       </c>
     </row>
+    <row r="2328">
+      <c r="A2328" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2328" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2328" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2328" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2328" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2328" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G2328" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2328" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2328" t="n">
+        <v>655300</v>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2329" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2329" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2329" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2329" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G2329" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2329" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2329" t="n">
+        <v>314600</v>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2330" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2330" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2330" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2330" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2330" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G2330" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2330" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2330" t="n">
+        <v>227000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2330"/>
+  <dimension ref="A1:I2331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81932,6 +81932,41 @@
         <v>227000</v>
       </c>
     </row>
+    <row r="2331">
+      <c r="A2331" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2331" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2331" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2331" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2331" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2331" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2331" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2331" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2331" t="n">
+        <v>509900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2331"/>
+  <dimension ref="A1:I2332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81967,6 +81967,41 @@
         <v>509900</v>
       </c>
     </row>
+    <row r="2332">
+      <c r="A2332" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2332" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2332" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2332" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2332" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2332" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G2332" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2332" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2332" t="n">
+        <v>2924700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5186.xlsx
+++ b/data/5186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2332"/>
+  <dimension ref="A1:I2335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82002,6 +82002,111 @@
         <v>2924700</v>
       </c>
     </row>
+    <row r="2333">
+      <c r="A2333" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2333" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2333" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2333" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2333" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F2333" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2333" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2333" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I2333" t="n">
+        <v>8640600</v>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2334" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2334" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2334" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2334" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F2334" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G2334" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2334" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I2334" t="n">
+        <v>2726600</v>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2335" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2335" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="D2335" t="inlineStr">
+        <is>
+          <t>MHB</t>
+        </is>
+      </c>
+      <c r="E2335" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F2335" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G2335" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H2335" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I2335" t="n">
+        <v>3262300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
